--- a/1_Schematic/Build V1.0/RF Generator_PWR_BOM_20190410.xlsx
+++ b/1_Schematic/Build V1.0/RF Generator_PWR_BOM_20190410.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="340">
   <si>
     <t>No</t>
   </si>
@@ -823,258 +823,271 @@
     <t>EC2F-103A2</t>
   </si>
   <si>
+    <t>SEMITEC</t>
+  </si>
+  <si>
+    <t>Temp Sensor 10K B=3435 -40 ~ +110 deg</t>
+  </si>
+  <si>
+    <t>SEM1</t>
+  </si>
+  <si>
+    <t>13.5mm</t>
+  </si>
+  <si>
+    <t>TP_PAD</t>
+  </si>
+  <si>
+    <t>TP1,TP2</t>
+  </si>
+  <si>
+    <t>RF-800</t>
+  </si>
+  <si>
+    <t>1T:1T</t>
+  </si>
+  <si>
+    <t>TX1</t>
+  </si>
+  <si>
+    <t>RF-1000</t>
+  </si>
+  <si>
+    <t>TX2</t>
+  </si>
+  <si>
+    <t>VR_RJ-13P</t>
+  </si>
+  <si>
+    <t>5K</t>
+  </si>
+  <si>
+    <t>COPAL</t>
+  </si>
+  <si>
+    <t>VR1,VR2,VR3</t>
+  </si>
+  <si>
+    <t>6.3mm</t>
+  </si>
+  <si>
+    <t>VR_RJ-13P-A</t>
+  </si>
+  <si>
+    <t>12.4PI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Part Type Report1 for Plasma_RF_Gen_V1.0_POWER_SCH_20190410_V9.5.sch on 2019-04-10 오후 10:39:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Design Part Type count: 32</t>
+  </si>
+  <si>
+    <t>C8,C10,C12,C39,C13,C16,C29,C37</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER 2nF 50V 10% X7R 0805</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMA CON, Right Angle</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res Metal Strip 0.01 Ohm 1% 5W Molded AXL</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.01/5W</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>VISHAY</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>LVR05R0100FE73</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIP_2W</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매수량</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>680/2W</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES DIP 680 OHM 5% 2W Axial-R</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES SMD 1K OHM 5% 1W 6432</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES SMD 820 OHM 5% 1W 6432</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER 18pF 50V 5% X7R 0805</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER 300pF 50V 5% X7R 0805</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER 150pF 50V 5% X7R 0805</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3216X7S2A225M</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5750X7R1E106M200KA</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5750C0G2W104K280KA</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>220uF/25V</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>130pF/500V</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>T491D106K035AT</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQW2UASR22J</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQW2UASR47J</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQW2UASR33J</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS166125</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1N5711W</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>KDS226</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1N4148W</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MRF1513N</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MRFE6VP6300H</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZXCT1110</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>KA358A</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAB1143-04</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>EC2F-103A2-40113</t>
-  </si>
-  <si>
-    <t>SEMITEC</t>
-  </si>
-  <si>
-    <t>Temp Sensor 10K B=3435 -40 ~ +110 deg</t>
-  </si>
-  <si>
-    <t>SEM1</t>
-  </si>
-  <si>
-    <t>13.5mm</t>
-  </si>
-  <si>
-    <t>TP_PAD</t>
-  </si>
-  <si>
-    <t>TP1,TP2</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>RF-800</t>
-  </si>
-  <si>
-    <t>1T:1T</t>
-  </si>
-  <si>
-    <t>TX1</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>RF-1000</t>
-  </si>
-  <si>
-    <t>TX2</t>
-  </si>
-  <si>
-    <t>VR_RJ-13P</t>
-  </si>
-  <si>
-    <t>5K</t>
-  </si>
-  <si>
-    <t>COPAL</t>
-  </si>
-  <si>
-    <t>VR1,VR2,VR3</t>
-  </si>
-  <si>
-    <t>6.3mm</t>
-  </si>
-  <si>
-    <t>VR_RJ-13P-A</t>
-  </si>
-  <si>
-    <t>12.4PI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Part Type Report1 for Plasma_RF_Gen_V1.0_POWER_SCH_20190410_V9.5.sch on 2019-04-10 오후 10:39:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Design Part Type count: 32</t>
-  </si>
-  <si>
-    <t>C8,C10,C12,C39,C13,C16,C29,C37</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAP CER 2nF 50V 10% X7R 0805</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMA CON, Right Angle</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Res Metal Strip 0.01 Ohm 1% 5W Molded AXL</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.01/5W</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>VISHAY</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>LVR05R0100FE73</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIP_2W</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매수량</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>680/2W</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES DIP 680 OHM 5% 2W Axial-R</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES SMD 1K OHM 5% 1W 6432</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETC</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES SMD 820 OHM 5% 1W 6432</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAP CER 18pF 50V 5% X7R 0805</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAP CER 300pF 50V 5% X7R 0805</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAP CER 150pF 50V 5% X7R 0805</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>C3216X7S2A225M</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>C5750X7R1E106M200KA</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>C5750C0G2W104K280KA</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJ-13P-5K</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>5K Trimming Potentiometer</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHB1143-04</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Wire To Board / Crimp Housing / Female / 3.96mm </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTB1140</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Wire To Board / Crimp Terminal / 3.96mm / AWG 18#~24# </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE43 2-30MHz 1:1 TRANSFORMER</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE43 2-30MHz 1:2 TRANSFORMER</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>80mm Heat sink</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAN</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC 12V</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2F-103A2-40113</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>BXJ100VC47MH10</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>220uF/25V</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>130pF/500V</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>T491D106K035AT</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQW2UASR22J</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQW2UASR47J</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQW2UASR33J</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS166125</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>1N5711W</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>KDS226</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>1N4148W</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MRF1513N</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MRFE6VP6300H</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZXCT1110</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>KA358A</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAB1143-04</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2F-103A2-40113</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF-800</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF-1000</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>RJ-13P-5K</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>5K Trimming Potentiometer</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHB1143-04</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Wire To Board / Crimp Housing / Female / 3.96mm </t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>CTB1140</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Wire To Board / Crimp Terminal / 3.96mm / AWG 18#~24# </t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>TYPE43 2-30MHz 1:1 TRANSFORMER</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>TYPE43 2-30MHz 1:2 TRANSFORMER</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1256,7 +1269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1454,6 +1467,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1714,7 +1733,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1765,6 +1784,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2108,10 +2133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q75"/>
+  <dimension ref="B1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29:H30"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2129,7 +2154,7 @@
   <sheetData>
     <row r="1" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E1" s="5"/>
     </row>
@@ -2162,10 +2187,10 @@
         <v>8</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>9</v>
@@ -2684,7 +2709,7 @@
         <v>820</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I17" s="14">
         <v>4</v>
@@ -2722,13 +2747,13 @@
         <v>124</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>124</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I18" s="14">
         <v>1</v>
@@ -2763,16 +2788,16 @@
         <v>135</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>51</v>
       </c>
       <c r="G19" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="H19" s="14" t="s">
         <v>299</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>300</v>
       </c>
       <c r="I19" s="14">
         <v>2</v>
@@ -2802,19 +2827,19 @@
         <v>13</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E20" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="G20" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="G20" s="14" t="s">
-        <v>295</v>
-      </c>
       <c r="H20" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I20" s="14">
         <v>2</v>
@@ -2856,7 +2881,7 @@
         <v>40</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I21" s="3">
         <v>1</v>
@@ -2900,7 +2925,7 @@
         <v>38</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I22" s="3">
         <v>2</v>
@@ -2944,7 +2969,7 @@
         <v>30</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I23" s="14">
         <v>1</v>
@@ -2994,7 +3019,7 @@
         <v>8</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K24" s="14">
         <v>30</v>
@@ -3032,7 +3057,7 @@
         <v>90</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I25" s="3">
         <v>1</v>
@@ -3423,7 +3448,7 @@
         <v>56</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>57</v>
@@ -3467,7 +3492,7 @@
         <v>56</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>104</v>
@@ -3511,7 +3536,7 @@
         <v>56</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>108</v>
@@ -3597,7 +3622,7 @@
         <v>24</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>25</v>
@@ -3637,7 +3662,7 @@
         <v>24</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>25</v>
@@ -3681,7 +3706,7 @@
         <v>51</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>69</v>
@@ -3807,7 +3832,7 @@
         <v>77</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>78</v>
@@ -3851,7 +3876,7 @@
         <v>170</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>171</v>
@@ -3895,7 +3920,7 @@
         <v>170</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H45" s="14" t="s">
         <v>183</v>
@@ -3939,7 +3964,7 @@
         <v>170</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>204</v>
@@ -4011,202 +4036,202 @@
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="3">
+      <c r="B48" s="17">
         <v>43</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="C48" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="H48" s="3" t="s">
+      <c r="G48" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="H48" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="17">
         <v>1</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="N48" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="O48" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B49" s="17">
         <v>44</v>
       </c>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3" t="s">
+      <c r="C49" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="I49" s="17">
+        <v>2</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="K49" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="N48" s="3" t="s">
+      <c r="N49" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="O48" s="3" t="s">
+      <c r="O49" s="17" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B49" s="3">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B50" s="17">
+        <v>45</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="I50" s="17">
+        <v>1</v>
+      </c>
+      <c r="J50" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="K50" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B50" s="3">
-        <v>45</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="I50" s="3">
+      <c r="L50" s="17"/>
+      <c r="M50" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="N50" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="O50" s="17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B51" s="17">
+        <v>46</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="I51" s="17">
+        <v>3</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="K51" s="17">
+        <v>6090</v>
+      </c>
+      <c r="L51" s="17">
+        <v>10</v>
+      </c>
+      <c r="M51" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="N51" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="O51" s="17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B52" s="17">
+        <v>47</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="I52" s="17">
         <v>1</v>
       </c>
-      <c r="J50" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="O50" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B51" s="3">
-        <v>46</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="I51" s="3">
-        <v>3</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="N51" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="O51" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B52" s="3">
-        <v>47</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1</v>
-      </c>
-      <c r="J52" s="3" t="s">
+      <c r="J52" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3" t="s">
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="17">
         <v>0</v>
       </c>
     </row>
@@ -4227,7 +4252,7 @@
         <v>210</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>211</v>
@@ -4271,7 +4296,7 @@
         <v>217</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>218</v>
@@ -4313,7 +4338,7 @@
         <v>210</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>222</v>
@@ -4357,7 +4382,7 @@
         <v>225</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>226</v>
@@ -4399,7 +4424,7 @@
         <v>225</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>230</v>
@@ -4443,7 +4468,7 @@
         <v>210</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>234</v>
@@ -4487,7 +4512,7 @@
         <v>240</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>241</v>
@@ -4515,42 +4540,42 @@
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B60" s="3">
+      <c r="B60" s="17">
         <v>55</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="3" t="s">
+      <c r="C60" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3" t="s">
+      <c r="F60" s="17"/>
+      <c r="G60" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="H60" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="I60" s="17">
         <v>2</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="J60" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="17">
         <v>220</v>
       </c>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3" t="s">
+      <c r="L60" s="17"/>
+      <c r="M60" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="N60" s="3" t="s">
+      <c r="N60" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="O60" s="3" t="s">
+      <c r="O60" s="17" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4571,7 +4596,7 @@
         <v>256</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>257</v>
@@ -4599,42 +4624,42 @@
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B62" s="3">
+      <c r="B62" s="10">
         <v>57</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="3" t="s">
+      <c r="C62" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="F62" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="G62" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="H62" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="H62" s="3" t="s">
+      <c r="I62" s="10">
+        <v>1</v>
+      </c>
+      <c r="J62" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="I62" s="3">
-        <v>1</v>
-      </c>
-      <c r="J62" s="3" t="s">
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="N62" s="3" t="s">
+      <c r="N62" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="10">
         <v>0</v>
       </c>
     </row>
@@ -4646,31 +4671,33 @@
         <v>13</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I63" s="3">
         <v>1</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K63" s="4">
         <v>6</v>
       </c>
-      <c r="L63" s="4"/>
+      <c r="L63" s="3">
+        <v>5</v>
+      </c>
       <c r="M63" s="3"/>
       <c r="N63" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O63" s="3">
         <v>0</v>
@@ -4684,7 +4711,7 @@
         <v>13</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>112</v>
@@ -4693,24 +4720,26 @@
         <v>51</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I64" s="3">
         <v>1</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K64" s="4">
         <v>7</v>
       </c>
-      <c r="L64" s="4"/>
+      <c r="L64" s="3">
+        <v>5</v>
+      </c>
       <c r="M64" s="3"/>
       <c r="N64" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O64" s="3">
         <v>0</v>
@@ -4724,25 +4753,25 @@
         <v>13</v>
       </c>
       <c r="D65" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E65" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="F65" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="G65" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I65" s="3">
         <v>3</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K65" s="14">
         <v>2760</v>
@@ -4751,13 +4780,13 @@
         <v>15</v>
       </c>
       <c r="M65" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="N65" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="N65" s="3" t="s">
+      <c r="O65" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="O65" s="3" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.3">
@@ -4793,86 +4822,70 @@
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B67" s="3">
+      <c r="B67" s="17">
         <v>62</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="3" t="s">
+      <c r="C67" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3">
+      <c r="E67" s="18"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="I67" s="17">
         <v>1</v>
       </c>
-      <c r="J67" s="3" t="s">
+      <c r="J67" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3" t="s">
+      <c r="K67" s="17">
+        <v>18820</v>
+      </c>
+      <c r="L67" s="17">
+        <v>2</v>
+      </c>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="O67" s="3">
+      <c r="O67" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B68" s="3">
-        <v>63</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="I68" s="12">
-        <v>2</v>
-      </c>
-      <c r="J68" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="K68" s="12">
-        <v>10</v>
-      </c>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="N68" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="O68" s="12" t="s">
-        <v>123</v>
-      </c>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="E68" s="18"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B69" s="3">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>15</v>
@@ -4884,121 +4897,163 @@
         <v>15</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I69" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="K69" s="12">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L69" s="12"/>
       <c r="M69" s="12" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="N69" s="12" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="O69" s="12" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B70" s="3">
-        <v>65</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3">
-        <v>2</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="O70" s="3">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" s="12">
+        <v>1</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" s="12">
+        <v>50</v>
+      </c>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N70" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B71" s="3">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>262</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="3" t="s">
-        <v>264</v>
-      </c>
+      <c r="H71" s="3"/>
       <c r="I71" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B72" s="3">
+        <v>66</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="O71" s="3" t="s">
+      <c r="E72" s="8"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I72" s="3">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="O72" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="73" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E73" s="5"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D74" t="s">
-        <v>331</v>
-      </c>
-      <c r="H74" t="s">
-        <v>332</v>
-      </c>
-      <c r="K74" s="16">
-        <v>40</v>
-      </c>
-      <c r="L74" s="16">
-        <v>100</v>
-      </c>
+    <row r="74" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E74" s="5"/>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H75" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K75" s="16">
         <v>40</v>
       </c>
       <c r="L75" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>331</v>
+      </c>
+      <c r="H76" t="s">
+        <v>332</v>
+      </c>
+      <c r="K76" s="16">
+        <v>40</v>
+      </c>
+      <c r="L76" s="16">
         <v>100</v>
       </c>
     </row>

--- a/1_Schematic/Build V1.0/RF Generator_PWR_BOM_20190410.xlsx
+++ b/1_Schematic/Build V1.0/RF Generator_PWR_BOM_20190410.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Plasma_RF_Gen_V1.0_POWER_SCH_20" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plasma_RF_Gen_V1.0_POWER_SCH_20!$B$5:$O$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plasma_RF_Gen_V1.0_POWER_SCH_20!$B$5:$P$5</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="342">
   <si>
     <t>No</t>
   </si>
@@ -406,9 +406,6 @@
     <t>RC2012F180</t>
   </si>
   <si>
-    <t>RES SMD 18 OHM 1% 1/8W 0805</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
@@ -1088,6 +1085,18 @@
   </si>
   <si>
     <t>BXJ100VC47MH10</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>180pF/500V</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>22uF/100V</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES SMD 18.2 OHM 1% 1/8W 0805</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1269,7 +1278,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1473,8 +1482,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1604,6 +1619,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1733,7 +1759,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1744,9 +1770,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1790,6 +1813,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2133,10 +2183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q76"/>
+  <dimension ref="B1:R76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2144,21 +2194,24 @@
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="6.125" customWidth="1"/>
     <col min="4" max="4" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.375" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="28.75" customWidth="1"/>
+    <col min="13" max="13" width="9" style="21"/>
+    <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="M1" s="18"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -2168,7 +2221,7 @@
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -2187,681 +2240,733 @@
         <v>8</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="19"/>
+      <c r="N5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="13">
+        <v>1</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" s="13">
+        <v>10</v>
+      </c>
+      <c r="L6" s="13">
+        <v>100</v>
+      </c>
+      <c r="M6" s="20">
+        <v>100</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="13">
+        <v>2</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="14">
+        <v>18.2</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="I7" s="13">
+        <v>1</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" s="13">
+        <v>10</v>
+      </c>
+      <c r="L7" s="13">
+        <v>100</v>
+      </c>
+      <c r="M7" s="20">
+        <v>100</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q7">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="13">
+        <v>3</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="14">
+        <v>49.9</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="13">
+        <v>2</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="K8" s="13">
+        <v>10</v>
+      </c>
+      <c r="L8" s="13">
+        <v>100</v>
+      </c>
+      <c r="M8" s="20">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="13">
+        <v>4</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="14">
+        <v>100</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="13">
+        <v>1</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="K9" s="13">
+        <v>10</v>
+      </c>
+      <c r="L9" s="13">
+        <v>100</v>
+      </c>
+      <c r="M9" s="20">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="13">
+        <v>5</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="14">
+        <v>330</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" s="13">
+        <v>2</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" s="13">
+        <v>10</v>
+      </c>
+      <c r="L10" s="13">
+        <v>100</v>
+      </c>
+      <c r="M10" s="20">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="13">
+        <v>6</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="I11" s="13">
+        <v>6</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" s="13">
+        <v>10</v>
+      </c>
+      <c r="L11" s="13">
+        <v>100</v>
+      </c>
+      <c r="M11" s="20">
+        <v>100</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="13">
+        <v>7</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="13">
+        <v>2</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="K12" s="13">
+        <v>10</v>
+      </c>
+      <c r="L12" s="13">
+        <v>100</v>
+      </c>
+      <c r="M12" s="20">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="13">
+        <v>8</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" s="13">
+        <v>10</v>
+      </c>
+      <c r="L13" s="13">
+        <v>100</v>
+      </c>
+      <c r="M13" s="20">
+        <v>100</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="13">
+        <v>9</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="13">
+        <v>1</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" s="13">
+        <v>10</v>
+      </c>
+      <c r="L14" s="13">
+        <v>100</v>
+      </c>
+      <c r="M14" s="20">
+        <v>100</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="13">
+        <v>10</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" s="13">
+        <v>6</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" s="13">
+        <v>10</v>
+      </c>
+      <c r="L15" s="13">
+        <v>100</v>
+      </c>
+      <c r="M15" s="20">
+        <v>100</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="13">
+        <v>11</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I16" s="13">
+        <v>1</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" s="13">
+        <v>10</v>
+      </c>
+      <c r="L16" s="13">
+        <v>100</v>
+      </c>
+      <c r="M16" s="20">
+        <v>100</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="13">
+        <v>12</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="14">
+        <v>820</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="13">
+        <v>820</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="I17" s="13">
+        <v>4</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" s="13">
+        <v>100</v>
+      </c>
+      <c r="L17" s="13">
+        <v>50</v>
+      </c>
+      <c r="M17" s="20">
+        <v>50</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="13">
+        <v>13</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="I18" s="13">
+        <v>1</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" s="13">
+        <v>100</v>
+      </c>
+      <c r="L18" s="13">
+        <v>50</v>
+      </c>
+      <c r="M18" s="20">
+        <v>50</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="13">
+        <v>14</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="2" t="s">
+      <c r="F19" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="I19" s="13">
+        <v>2</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="13">
+        <v>30</v>
+      </c>
+      <c r="L19" s="13">
+        <v>100</v>
+      </c>
+      <c r="M19" s="20">
+        <v>100</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="13">
+        <v>15</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="I20" s="13">
+        <v>2</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="13">
+        <v>2080</v>
+      </c>
+      <c r="L20" s="13">
         <v>10</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="14">
-        <v>1</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="M20" s="20">
+        <v>10</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="I6" s="14">
-        <v>1</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="K6" s="14">
-        <v>10</v>
-      </c>
-      <c r="L6" s="14">
-        <v>100</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="14">
-        <v>2</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="15">
-        <v>18</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="I7" s="14">
-        <v>1</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="K7" s="14">
-        <v>10</v>
-      </c>
-      <c r="L7" s="14">
-        <v>100</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="14">
-        <v>3</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="15">
-        <v>49.9</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="I8" s="14">
-        <v>2</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="K8" s="14">
-        <v>10</v>
-      </c>
-      <c r="L8" s="14">
-        <v>100</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="14">
-        <v>4</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="15">
-        <v>100</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="I9" s="14">
-        <v>1</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="K9" s="14">
-        <v>10</v>
-      </c>
-      <c r="L9" s="14">
-        <v>100</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="14">
-        <v>5</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="15">
-        <v>330</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="I10" s="14">
-        <v>2</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="K10" s="14">
-        <v>10</v>
-      </c>
-      <c r="L10" s="14">
-        <v>100</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="14">
-        <v>6</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="I11" s="14">
-        <v>6</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="K11" s="14">
-        <v>10</v>
-      </c>
-      <c r="L11" s="14">
-        <v>100</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="14">
-        <v>7</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="I12" s="14">
-        <v>2</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="K12" s="14">
-        <v>10</v>
-      </c>
-      <c r="L12" s="14">
-        <v>100</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="14">
-        <v>8</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="I13" s="14">
-        <v>1</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="K13" s="14">
-        <v>10</v>
-      </c>
-      <c r="L13" s="14">
-        <v>100</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="14">
-        <v>9</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="I14" s="14">
-        <v>1</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="K14" s="14">
-        <v>10</v>
-      </c>
-      <c r="L14" s="14">
-        <v>100</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="14">
-        <v>10</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="I15" s="14">
-        <v>6</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="K15" s="14">
-        <v>10</v>
-      </c>
-      <c r="L15" s="14">
-        <v>100</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="14">
-        <v>11</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="I16" s="14">
-        <v>1</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="K16" s="14">
-        <v>10</v>
-      </c>
-      <c r="L16" s="14">
-        <v>100</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="14">
-        <v>12</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" s="15">
-        <v>820</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="14">
-        <v>820</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="I17" s="14">
-        <v>4</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="K17" s="14">
-        <v>100</v>
-      </c>
-      <c r="L17" s="14">
-        <v>50</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="14">
-        <v>13</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="I18" s="14">
-        <v>1</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="K18" s="14">
-        <v>100</v>
-      </c>
-      <c r="L18" s="14">
-        <v>50</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="14">
-        <v>14</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="I19" s="14">
-        <v>2</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="K19" s="14">
-        <v>30</v>
-      </c>
-      <c r="L19" s="14">
-        <v>100</v>
-      </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="14">
-        <v>15</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="I20" s="14">
-        <v>2</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="K20" s="14">
-        <v>2080</v>
-      </c>
-      <c r="L20" s="14">
-        <v>10</v>
-      </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>16</v>
       </c>
@@ -2871,7 +2976,7 @@
       <c r="D21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -2881,7 +2986,7 @@
         <v>40</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I21" s="3">
         <v>1</v>
@@ -2889,23 +2994,26 @@
       <c r="J21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="13">
         <v>30</v>
       </c>
-      <c r="L21" s="14">
-        <v>100</v>
-      </c>
-      <c r="M21" s="3" t="s">
+      <c r="L21" s="13">
+        <v>100</v>
+      </c>
+      <c r="M21" s="20">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>17</v>
       </c>
@@ -2915,7 +3023,7 @@
       <c r="D22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -2925,7 +3033,7 @@
         <v>38</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I22" s="3">
         <v>2</v>
@@ -2933,67 +3041,73 @@
       <c r="J22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="13">
         <v>50</v>
       </c>
-      <c r="L22" s="14">
-        <v>100</v>
-      </c>
-      <c r="M22" s="3" t="s">
+      <c r="L22" s="13">
+        <v>100</v>
+      </c>
+      <c r="M22" s="20">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="14">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="13">
         <v>18</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="14" t="s">
+      <c r="C23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="I23" s="14">
+      <c r="H23" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="I23" s="13">
         <v>1</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="13">
         <v>30</v>
       </c>
-      <c r="L23" s="14">
-        <v>100</v>
-      </c>
-      <c r="M23" s="3" t="s">
+      <c r="L23" s="13">
+        <v>100</v>
+      </c>
+      <c r="M23" s="20">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="P23" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>19</v>
       </c>
@@ -3003,7 +3117,7 @@
       <c r="D24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -3019,25 +3133,28 @@
         <v>8</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K24" s="14">
+        <v>287</v>
+      </c>
+      <c r="K24" s="13">
         <v>30</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="13">
         <v>200</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="20">
+        <v>200</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>25</v>
       </c>
@@ -3047,17 +3164,17 @@
       <c r="D25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>90</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>90</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I25" s="3">
         <v>1</v>
@@ -3065,23 +3182,26 @@
       <c r="J25" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="13">
         <v>15</v>
       </c>
-      <c r="L25" s="14">
-        <v>100</v>
-      </c>
-      <c r="M25" s="3" t="s">
+      <c r="L25" s="13">
+        <v>100</v>
+      </c>
+      <c r="M25" s="20">
+        <v>100</v>
+      </c>
+      <c r="N25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="P25" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>20</v>
       </c>
@@ -3091,7 +3211,7 @@
       <c r="D26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>82</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -3109,23 +3229,26 @@
       <c r="J26" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="13">
         <v>15</v>
       </c>
-      <c r="L26" s="14">
-        <v>100</v>
-      </c>
-      <c r="M26" s="3" t="s">
+      <c r="L26" s="13">
+        <v>100</v>
+      </c>
+      <c r="M26" s="20">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="O26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="P26" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>21</v>
       </c>
@@ -3135,7 +3258,7 @@
       <c r="D27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -3153,23 +3276,26 @@
       <c r="J27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="13">
         <v>15</v>
       </c>
-      <c r="L27" s="14">
-        <v>100</v>
-      </c>
-      <c r="M27" s="3" t="s">
+      <c r="L27" s="13">
+        <v>100</v>
+      </c>
+      <c r="M27" s="20">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="O27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="P27" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>22</v>
       </c>
@@ -3179,7 +3305,7 @@
       <c r="D28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -3194,26 +3320,29 @@
       <c r="I28" s="3">
         <v>7</v>
       </c>
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="13">
         <v>20</v>
       </c>
-      <c r="L28" s="14">
-        <v>100</v>
-      </c>
-      <c r="M28" s="3" t="s">
+      <c r="L28" s="13">
+        <v>100</v>
+      </c>
+      <c r="M28" s="20">
+        <v>100</v>
+      </c>
+      <c r="N28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="O28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="P28" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>23</v>
       </c>
@@ -3223,7 +3352,7 @@
       <c r="D29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>87</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -3238,26 +3367,29 @@
       <c r="I29" s="3">
         <v>1</v>
       </c>
-      <c r="J29" s="14" t="s">
+      <c r="J29" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="13">
         <v>50</v>
       </c>
-      <c r="L29" s="14">
-        <v>100</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="L29" s="13">
+        <v>100</v>
+      </c>
+      <c r="M29" s="20">
+        <v>100</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>24</v>
       </c>
@@ -3267,7 +3399,7 @@
       <c r="D30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -3285,65 +3417,69 @@
       <c r="J30" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K30" s="13">
         <v>60</v>
       </c>
-      <c r="L30" s="14">
-        <v>100</v>
-      </c>
-      <c r="M30" s="3" t="s">
+      <c r="L30" s="13">
+        <v>100</v>
+      </c>
+      <c r="M30" s="20">
+        <v>100</v>
+      </c>
+      <c r="N30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="O30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="P30" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>26</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="10" t="s">
+      <c r="C31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
         <v>1</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="9">
         <v>50</v>
       </c>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10" t="s">
+      <c r="L31" s="9"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N31" s="10" t="s">
+      <c r="O31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O31" s="10" t="s">
+      <c r="P31" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>27</v>
       </c>
@@ -3353,7 +3489,7 @@
       <c r="D32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>92</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -3371,23 +3507,26 @@
       <c r="J32" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K32" s="13">
         <v>130</v>
       </c>
-      <c r="L32" s="14">
-        <v>100</v>
-      </c>
-      <c r="M32" s="3" t="s">
+      <c r="L32" s="13">
+        <v>100</v>
+      </c>
+      <c r="M32" s="20">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="P32" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>28</v>
       </c>
@@ -3397,7 +3536,7 @@
       <c r="D33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -3415,23 +3554,26 @@
       <c r="J33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="13">
         <v>50</v>
       </c>
-      <c r="L33" s="14">
-        <v>100</v>
-      </c>
-      <c r="M33" s="3" t="s">
+      <c r="L33" s="13">
+        <v>100</v>
+      </c>
+      <c r="M33" s="20">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="O33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="P33" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>29</v>
       </c>
@@ -3441,14 +3583,14 @@
       <c r="D34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>57</v>
@@ -3459,67 +3601,71 @@
       <c r="J34" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K34" s="13">
         <v>770</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L34" s="13">
         <v>10</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="M34" s="20">
+        <v>10</v>
+      </c>
+      <c r="N34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="O34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="P34" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="3">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B35" s="22">
         <v>30</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="C35" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="H35" s="3" t="s">
+      <c r="G35" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="H35" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="22">
         <v>1</v>
       </c>
-      <c r="J35" s="14" t="s">
+      <c r="J35" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K35" s="22">
         <v>2870</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L35" s="22">
         <v>5</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="M35" s="22"/>
+      <c r="N35" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="O35" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="P35" s="22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <v>31</v>
       </c>
@@ -3529,14 +3675,14 @@
       <c r="D36" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>108</v>
@@ -3544,68 +3690,72 @@
       <c r="I36" s="3">
         <v>2</v>
       </c>
-      <c r="J36" s="14" t="s">
+      <c r="J36" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="K36" s="14">
+      <c r="K36" s="13">
         <v>4480</v>
       </c>
-      <c r="L36" s="14">
+      <c r="L36" s="13">
         <v>10</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="M36" s="20">
+        <v>10</v>
+      </c>
+      <c r="N36" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="O36" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="P36" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
         <v>32</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="10" t="s">
+      <c r="C37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="9">
         <v>4</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="9">
         <v>10</v>
       </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="N37" s="10" t="s">
+      <c r="L37" s="9"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O37" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="O37" s="10" t="s">
+      <c r="P37" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <v>33</v>
       </c>
@@ -3615,14 +3765,14 @@
       <c r="D38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>25</v>
@@ -3635,61 +3785,66 @@
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
-      <c r="M38" s="3" t="s">
+      <c r="M38" s="20"/>
+      <c r="N38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="O38" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="P38" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B39" s="22">
         <v>34</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="C39" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="H39" s="3" t="s">
+      <c r="G39" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="H39" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="22">
         <v>1</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K39" s="22">
         <v>320</v>
       </c>
-      <c r="L39" s="14">
+      <c r="L39" s="22">
         <v>5</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="M39" s="22"/>
+      <c r="N39" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="O39" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="P39" s="22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="Q39" s="24" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
         <v>35</v>
       </c>
@@ -3699,14 +3854,14 @@
       <c r="D40" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>69</v>
@@ -3717,21 +3872,24 @@
       <c r="J40" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K40" s="14">
+      <c r="K40" s="13">
         <v>2350</v>
       </c>
-      <c r="L40" s="14">
+      <c r="L40" s="13">
         <v>10</v>
       </c>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3" t="s">
+      <c r="M40" s="20">
+        <v>10</v>
+      </c>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="O40" s="3">
+      <c r="P40" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
         <v>36</v>
       </c>
@@ -3741,14 +3899,14 @@
       <c r="D41" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>68</v>
+        <v>339</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>73</v>
@@ -3759,21 +3917,24 @@
       <c r="J41" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K41" s="13">
         <v>2910</v>
       </c>
-      <c r="L41" s="14">
+      <c r="L41" s="13">
         <v>10</v>
       </c>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3" t="s">
+      <c r="M41" s="20">
+        <v>10</v>
+      </c>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
         <v>37</v>
       </c>
@@ -3783,7 +3944,7 @@
       <c r="D42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F42" s="3" t="s">
@@ -3801,21 +3962,24 @@
       <c r="J42" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K42" s="13">
         <v>5730</v>
       </c>
-      <c r="L42" s="14">
+      <c r="L42" s="13">
         <v>10</v>
       </c>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3" t="s">
+      <c r="M42" s="20">
+        <v>10</v>
+      </c>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
         <v>38</v>
       </c>
@@ -3825,14 +3989,14 @@
       <c r="D43" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>78</v>
@@ -3843,23 +4007,26 @@
       <c r="J43" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K43" s="14">
+      <c r="K43" s="13">
         <v>500</v>
       </c>
-      <c r="L43" s="14">
+      <c r="L43" s="13">
         <v>20</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="M43" s="20">
+        <v>20</v>
+      </c>
+      <c r="N43" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="O43" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="P43" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
         <v>39</v>
       </c>
@@ -3867,87 +4034,93 @@
         <v>13</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="F44" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="I44" s="3">
         <v>1</v>
       </c>
       <c r="J44" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K44" s="13">
+        <v>340</v>
+      </c>
+      <c r="L44" s="13">
+        <v>10</v>
+      </c>
+      <c r="M44" s="20">
+        <v>10</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O44" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="K44" s="14">
-        <v>340</v>
-      </c>
-      <c r="L44" s="14">
+      <c r="P44" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="13">
+        <v>40</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="I45" s="13">
+        <v>1</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="K45" s="13">
+        <v>300</v>
+      </c>
+      <c r="L45" s="13">
         <v>10</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="M45" s="20">
+        <v>10</v>
+      </c>
+      <c r="N45" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="O45" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="P45" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="14">
-        <v>40</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I45" s="14">
-        <v>1</v>
-      </c>
-      <c r="J45" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="K45" s="14">
-        <v>300</v>
-      </c>
-      <c r="L45" s="14">
-        <v>10</v>
-      </c>
-      <c r="M45" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="N45" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="O45" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
         <v>41</v>
       </c>
@@ -3955,43 +4128,46 @@
         <v>13</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E46" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="I46" s="3">
         <v>1</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="K46" s="14">
+        <v>204</v>
+      </c>
+      <c r="K46" s="13">
         <v>340</v>
       </c>
-      <c r="L46" s="14">
+      <c r="L46" s="13">
         <v>10</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="M46" s="20">
+        <v>10</v>
+      </c>
+      <c r="N46" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N46" s="3" t="s">
+      <c r="O46" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="P46" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
         <v>42</v>
       </c>
@@ -3999,243 +4175,251 @@
         <v>13</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E47" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="I47" s="3">
         <v>2</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="K47" s="14">
+        <v>207</v>
+      </c>
+      <c r="K47" s="13">
         <v>340</v>
       </c>
-      <c r="L47" s="14">
+      <c r="L47" s="13">
         <v>10</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="M47" s="20">
+        <v>10</v>
+      </c>
+      <c r="N47" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="O47" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="P47" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="O47" s="3" t="s">
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B48" s="16">
+        <v>43</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="16" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="17">
-        <v>43</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="17" t="s">
+      <c r="E48" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="F48" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I48" s="16">
+        <v>1</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="O48" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="P48" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B49" s="16">
+        <v>44</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="H49" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="I49" s="16">
+        <v>2</v>
+      </c>
+      <c r="J49" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L49" s="16"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="O49" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="P49" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B50" s="16">
+        <v>45</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="F50" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G48" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="I48" s="17">
+      <c r="G50" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="I50" s="16">
         <v>1</v>
       </c>
-      <c r="J48" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="N48" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="O48" s="17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B49" s="17">
+      <c r="J50" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="K50" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="H49" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="I49" s="17">
-        <v>2</v>
-      </c>
-      <c r="J49" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="K49" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="N49" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="O49" s="17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B50" s="17">
-        <v>45</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="H50" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="I50" s="17">
+      <c r="L50" s="16"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="O50" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="P50" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B51" s="16">
+        <v>46</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="I51" s="16">
+        <v>3</v>
+      </c>
+      <c r="J51" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="K51" s="16">
+        <v>6090</v>
+      </c>
+      <c r="L51" s="16">
+        <v>10</v>
+      </c>
+      <c r="M51" s="20"/>
+      <c r="N51" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="O51" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="P51" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B52" s="16">
+        <v>47</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I52" s="16">
         <v>1</v>
       </c>
-      <c r="J50" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="K50" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="N50" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="O50" s="17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B51" s="17">
-        <v>46</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="H51" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="I51" s="17">
-        <v>3</v>
-      </c>
-      <c r="J51" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="K51" s="17">
-        <v>6090</v>
-      </c>
-      <c r="L51" s="17">
-        <v>10</v>
-      </c>
-      <c r="M51" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="N51" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="O51" s="17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B52" s="17">
-        <v>47</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="I52" s="17">
-        <v>1</v>
-      </c>
-      <c r="J52" s="17" t="s">
+      <c r="J52" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17" t="s">
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="O52" s="17">
+      <c r="P52" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" s="3">
         <v>48</v>
       </c>
@@ -4243,43 +4427,46 @@
         <v>13</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E53" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="F53" s="3" t="s">
+      <c r="G53" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="I53" s="3">
         <v>2</v>
       </c>
       <c r="J53" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K53" s="13">
+        <v>420</v>
+      </c>
+      <c r="L53" s="13">
+        <v>20</v>
+      </c>
+      <c r="M53" s="20">
+        <v>20</v>
+      </c>
+      <c r="N53" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="K53" s="14">
-        <v>420</v>
-      </c>
-      <c r="L53" s="14">
-        <v>20</v>
-      </c>
-      <c r="M53" s="3" t="s">
+      <c r="O53" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="N53" s="3" t="s">
+      <c r="P53" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="O53" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" s="3">
         <v>49</v>
       </c>
@@ -4287,41 +4474,44 @@
         <v>13</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E54" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="I54" s="3">
         <v>3</v>
       </c>
       <c r="J54" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K54" s="13">
+        <v>33</v>
+      </c>
+      <c r="L54" s="13">
+        <v>20</v>
+      </c>
+      <c r="M54" s="20">
+        <v>20</v>
+      </c>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="K54" s="14">
-        <v>33</v>
-      </c>
-      <c r="L54" s="14">
-        <v>20</v>
-      </c>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B55" s="3">
         <v>50</v>
       </c>
@@ -4329,43 +4519,46 @@
         <v>13</v>
       </c>
       <c r="D55" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="I55" s="3">
         <v>1</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="K55" s="14">
+        <v>222</v>
+      </c>
+      <c r="K55" s="13">
         <v>54</v>
       </c>
-      <c r="L55" s="14">
+      <c r="L55" s="13">
         <v>10</v>
       </c>
-      <c r="M55" s="3" t="s">
+      <c r="M55" s="20">
+        <v>10</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="O55" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="N55" s="3" t="s">
+      <c r="P55" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="O55" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B56" s="3">
         <v>51</v>
       </c>
@@ -4373,41 +4566,44 @@
         <v>13</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E56" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="I56" s="3">
         <v>1</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="K56" s="14">
+        <v>226</v>
+      </c>
+      <c r="K56" s="13">
         <v>8250</v>
       </c>
-      <c r="L56" s="14">
+      <c r="L56" s="13">
         <v>10</v>
       </c>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="O56" s="3">
+      <c r="M56" s="20">
+        <v>10</v>
+      </c>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="P56" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B57" s="3">
         <v>52</v>
       </c>
@@ -4415,43 +4611,46 @@
         <v>13</v>
       </c>
       <c r="D57" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="F57" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="I57" s="3">
         <v>1</v>
       </c>
       <c r="J57" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K57" s="13">
+        <v>115300</v>
+      </c>
+      <c r="L57" s="13">
+        <v>3</v>
+      </c>
+      <c r="M57" s="20">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="K57" s="14">
-        <v>115300</v>
-      </c>
-      <c r="L57" s="14">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="P57" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B58" s="3">
         <v>53</v>
       </c>
@@ -4459,43 +4658,46 @@
         <v>13</v>
       </c>
       <c r="D58" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="I58" s="3">
         <v>1</v>
       </c>
       <c r="J58" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K58" s="13">
+        <v>910</v>
+      </c>
+      <c r="L58" s="13">
+        <v>10</v>
+      </c>
+      <c r="M58" s="20">
+        <v>10</v>
+      </c>
+      <c r="N58" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="K58" s="14">
-        <v>910</v>
-      </c>
-      <c r="L58" s="14">
-        <v>10</v>
-      </c>
-      <c r="M58" s="3" t="s">
+      <c r="O58" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="P58" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B59" s="3">
         <v>54</v>
       </c>
@@ -4503,83 +4705,91 @@
         <v>13</v>
       </c>
       <c r="D59" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E59" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="F59" s="3" t="s">
+      <c r="G59" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="I59" s="3">
         <v>3</v>
       </c>
       <c r="J59" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K59" s="13">
+        <v>360</v>
+      </c>
+      <c r="L59" s="13">
+        <v>20</v>
+      </c>
+      <c r="M59" s="20">
+        <v>20</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O59" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="K59" s="14">
-        <v>360</v>
-      </c>
-      <c r="L59" s="14">
-        <v>20</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B60" s="17">
+      <c r="P59" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B60" s="16">
         <v>55</v>
       </c>
-      <c r="C60" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="17" t="s">
+      <c r="C60" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="I60" s="16">
+        <v>2</v>
+      </c>
+      <c r="J60" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="E60" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="H60" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="I60" s="17">
-        <v>2</v>
-      </c>
-      <c r="J60" s="17" t="s">
+      <c r="K60" s="16">
+        <v>220</v>
+      </c>
+      <c r="L60" s="16">
+        <v>10</v>
+      </c>
+      <c r="M60" s="20">
+        <v>10</v>
+      </c>
+      <c r="N60" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="K60" s="17">
-        <v>220</v>
-      </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17" t="s">
+      <c r="O60" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="N60" s="17" t="s">
+      <c r="P60" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="O60" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B61" s="3">
         <v>56</v>
       </c>
@@ -4587,165 +4797,171 @@
         <v>13</v>
       </c>
       <c r="D61" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E61" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="F61" s="3" t="s">
+      <c r="G61" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="H61" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="I61" s="3">
         <v>1</v>
       </c>
       <c r="J61" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="K61" s="13">
+        <v>80</v>
+      </c>
+      <c r="L61" s="13">
+        <v>100</v>
+      </c>
+      <c r="M61" s="20">
+        <v>100</v>
+      </c>
+      <c r="N61" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="K61" s="14">
-        <v>80</v>
-      </c>
-      <c r="L61" s="14">
-        <v>100</v>
-      </c>
-      <c r="M61" s="3" t="s">
+      <c r="O61" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="N61" s="3" t="s">
+      <c r="P61" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="O61" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B62" s="10">
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B62" s="9">
         <v>57</v>
       </c>
-      <c r="C62" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="10" t="s">
+      <c r="C62" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F62" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="E62" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="F62" s="10" t="s">
+      <c r="G62" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="H62" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="I62" s="9">
+        <v>1</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="O62" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P62" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B63" s="16">
+        <v>58</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="H62" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="I62" s="10">
+      <c r="E63" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="I63" s="16">
         <v>1</v>
       </c>
-      <c r="J62" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="N62" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="O62" s="10">
+      <c r="J63" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="K63" s="25">
+        <v>6</v>
+      </c>
+      <c r="L63" s="16">
+        <v>5</v>
+      </c>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="P63" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B63" s="3">
-        <v>58</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="3" t="s">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B64" s="16">
+        <v>59</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G64" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="E63" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="H63" s="3" t="s">
+      <c r="H64" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="I63" s="3">
+      <c r="I64" s="16">
         <v>1</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="J64" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="K64" s="25">
+        <v>7</v>
+      </c>
+      <c r="L64" s="16">
+        <v>5</v>
+      </c>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="K63" s="4">
-        <v>6</v>
-      </c>
-      <c r="L63" s="3">
-        <v>5</v>
-      </c>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="O63" s="3">
+      <c r="P64" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B64" s="3">
-        <v>59</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="I64" s="3">
-        <v>1</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="K64" s="4">
-        <v>7</v>
-      </c>
-      <c r="L64" s="3">
-        <v>5</v>
-      </c>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="O64" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B65" s="3">
         <v>60</v>
       </c>
@@ -4753,43 +4969,46 @@
         <v>13</v>
       </c>
       <c r="D65" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="F65" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>281</v>
-      </c>
       <c r="G65" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="H65" s="13" t="s">
         <v>327</v>
-      </c>
-      <c r="H65" s="14" t="s">
-        <v>328</v>
       </c>
       <c r="I65" s="3">
         <v>3</v>
       </c>
       <c r="J65" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="K65" s="13">
+        <v>2760</v>
+      </c>
+      <c r="L65" s="13">
+        <v>15</v>
+      </c>
+      <c r="M65" s="20">
+        <v>15</v>
+      </c>
+      <c r="N65" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="K65" s="14">
-        <v>2760</v>
-      </c>
-      <c r="L65" s="14">
-        <v>15</v>
-      </c>
-      <c r="M65" s="3" t="s">
+      <c r="O65" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="N65" s="3" t="s">
+      <c r="P65" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="O65" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B66" s="3">
         <v>61</v>
       </c>
@@ -4797,181 +5016,190 @@
         <v>13</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E66" s="8"/>
+        <v>243</v>
+      </c>
+      <c r="E66" s="7"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3">
         <v>2</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="M66" s="20"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="P66" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B67" s="17">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B67" s="16">
         <v>62</v>
       </c>
-      <c r="C67" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="17" t="s">
+      <c r="C67" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E67" s="17"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="I67" s="16">
+        <v>1</v>
+      </c>
+      <c r="J67" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="E67" s="18"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17" t="s">
+      <c r="K67" s="16">
+        <v>18820</v>
+      </c>
+      <c r="L67" s="16">
+        <v>2</v>
+      </c>
+      <c r="M67" s="20">
+        <v>2</v>
+      </c>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="P67" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="I67" s="17">
-        <v>1</v>
-      </c>
-      <c r="J67" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="K67" s="17">
-        <v>18820</v>
-      </c>
-      <c r="L67" s="17">
+      <c r="E68" s="17"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="20">
         <v>2</v>
       </c>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="O67" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="E68" s="18"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B69" s="3">
         <v>63</v>
       </c>
-      <c r="C69" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="12" t="s">
+      <c r="C69" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E69" s="13" t="s">
+      <c r="E69" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F69" s="12" t="s">
+      <c r="F69" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G69" s="12" t="s">
+      <c r="G69" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H69" s="12" t="s">
+      <c r="H69" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="I69" s="11">
+        <v>2</v>
+      </c>
+      <c r="J69" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="I69" s="12">
-        <v>2</v>
-      </c>
-      <c r="J69" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="K69" s="12">
+      <c r="K69" s="11">
         <v>10</v>
       </c>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12" t="s">
+      <c r="L69" s="11"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="N69" s="12" t="s">
+      <c r="O69" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="O69" s="12" t="s">
+      <c r="P69" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B70" s="3">
         <v>64</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="12" t="s">
+      <c r="C70" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="13" t="s">
+      <c r="E70" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="12" t="s">
+      <c r="F70" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G70" s="12" t="s">
+      <c r="G70" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H70" s="12" t="s">
+      <c r="H70" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I70" s="12">
+      <c r="I70" s="11">
         <v>1</v>
       </c>
-      <c r="J70" s="12" t="s">
+      <c r="J70" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K70" s="12">
+      <c r="K70" s="11">
         <v>50</v>
       </c>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12" t="s">
+      <c r="L70" s="11"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N70" s="12" t="s">
+      <c r="O70" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="O70" s="12" t="s">
+      <c r="P70" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B71" s="3">
         <v>65</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E71" s="8"/>
+        <v>271</v>
+      </c>
+      <c r="E71" s="7"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -4979,86 +5207,95 @@
         <v>2</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="O71" s="3">
+      <c r="M71" s="20"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="P71" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B72" s="3">
         <v>66</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E72" s="8"/>
+      <c r="E72" s="7"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I72" s="3">
         <v>8</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="M72" s="20"/>
+      <c r="N72" s="3"/>
       <c r="O72" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="74" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E74" s="5"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="M74" s="18"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
+        <v>328</v>
+      </c>
+      <c r="H75" t="s">
         <v>329</v>
       </c>
-      <c r="H75" t="s">
+      <c r="K75" s="15">
+        <v>40</v>
+      </c>
+      <c r="L75" s="15">
+        <v>100</v>
+      </c>
+      <c r="M75" s="21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
         <v>330</v>
       </c>
-      <c r="K75" s="16">
+      <c r="H76" t="s">
+        <v>331</v>
+      </c>
+      <c r="K76" s="15">
         <v>40</v>
       </c>
-      <c r="L75" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D76" t="s">
-        <v>331</v>
-      </c>
-      <c r="H76" t="s">
-        <v>332</v>
-      </c>
-      <c r="K76" s="16">
-        <v>40</v>
-      </c>
-      <c r="L76" s="16">
+      <c r="L76" s="15">
+        <v>100</v>
+      </c>
+      <c r="M76" s="21">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B5:O5"/>
+  <autoFilter ref="B5:P5"/>
   <sortState ref="A21:S34">
     <sortCondition ref="E21:E34"/>
   </sortState>
